--- a/INTLINE/data/193/ABS/87310020.xlsx
+++ b/INTLINE/data/193/ABS/87310020.xlsx
@@ -12,44 +12,44 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A118756312X">Data1!$H$1:$H$10,Data1!$H$737:$H$804</definedName>
-    <definedName name="A118756312X_Data">Data1!$H$737:$H$804</definedName>
-    <definedName name="A118756312X_Latest">Data1!$H$804</definedName>
-    <definedName name="A118756744C">Data1!$F$1:$F$10,Data1!$F$437:$F$804</definedName>
-    <definedName name="A118756744C_Data">Data1!$F$437:$F$804</definedName>
-    <definedName name="A118756744C_Latest">Data1!$F$804</definedName>
-    <definedName name="A118757032X">Data1!$E$1:$E$10,Data1!$E$437:$E$804</definedName>
-    <definedName name="A118757032X_Data">Data1!$E$437:$E$804</definedName>
-    <definedName name="A118757032X_Latest">Data1!$E$804</definedName>
-    <definedName name="A118758040T">Data1!$C$1:$C$10,Data1!$C$437:$C$804</definedName>
-    <definedName name="A118758040T_Data">Data1!$C$437:$C$804</definedName>
-    <definedName name="A118758040T_Latest">Data1!$C$804</definedName>
-    <definedName name="A118758112T">Data1!$K$1:$K$10,Data1!$K$437:$K$804</definedName>
-    <definedName name="A118758112T_Data">Data1!$K$437:$K$804</definedName>
-    <definedName name="A118758112T_Latest">Data1!$K$804</definedName>
-    <definedName name="A118758184C">Data1!$G$1:$G$10,Data1!$G$437:$G$804</definedName>
-    <definedName name="A118758184C_Data">Data1!$G$437:$G$804</definedName>
-    <definedName name="A118758184C_Latest">Data1!$G$804</definedName>
-    <definedName name="A118758400K">Data1!$J$1:$J$10,Data1!$J$437:$J$804</definedName>
-    <definedName name="A118758400K_Data">Data1!$J$437:$J$804</definedName>
-    <definedName name="A118758400K_Latest">Data1!$J$804</definedName>
-    <definedName name="A118758544W">Data1!$D$1:$D$10,Data1!$D$437:$D$804</definedName>
-    <definedName name="A118758544W_Data">Data1!$D$437:$D$804</definedName>
-    <definedName name="A118758544W_Latest">Data1!$D$804</definedName>
-    <definedName name="A118758616W">Data1!$I$1:$I$10,Data1!$I$737:$I$804</definedName>
-    <definedName name="A118758616W_Data">Data1!$I$737:$I$804</definedName>
-    <definedName name="A118758616W_Latest">Data1!$I$804</definedName>
-    <definedName name="A418403T">Data1!$B$1:$B$10,Data1!$B$11:$B$804</definedName>
-    <definedName name="A418403T_Data">Data1!$B$11:$B$804</definedName>
-    <definedName name="A418403T_Latest">Data1!$B$804</definedName>
-    <definedName name="A419138J">Data1!$L$1:$L$10,Data1!$L$185:$L$804</definedName>
-    <definedName name="A419138J_Data">Data1!$L$185:$L$804</definedName>
-    <definedName name="A419138J_Latest">Data1!$L$804</definedName>
-    <definedName name="A419824J">Data1!$M$1:$M$10,Data1!$M$11:$M$804</definedName>
-    <definedName name="A419824J_Data">Data1!$M$11:$M$804</definedName>
-    <definedName name="A419824J_Latest">Data1!$M$804</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$804</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$804</definedName>
+    <definedName name="A118756312X">Data1!$H$1:$H$10,Data1!$H$737:$H$806</definedName>
+    <definedName name="A118756312X_Data">Data1!$H$737:$H$806</definedName>
+    <definedName name="A118756312X_Latest">Data1!$H$806</definedName>
+    <definedName name="A118756744C">Data1!$F$1:$F$10,Data1!$F$437:$F$806</definedName>
+    <definedName name="A118756744C_Data">Data1!$F$437:$F$806</definedName>
+    <definedName name="A118756744C_Latest">Data1!$F$806</definedName>
+    <definedName name="A118757032X">Data1!$E$1:$E$10,Data1!$E$437:$E$806</definedName>
+    <definedName name="A118757032X_Data">Data1!$E$437:$E$806</definedName>
+    <definedName name="A118757032X_Latest">Data1!$E$806</definedName>
+    <definedName name="A118758040T">Data1!$C$1:$C$10,Data1!$C$437:$C$806</definedName>
+    <definedName name="A118758040T_Data">Data1!$C$437:$C$806</definedName>
+    <definedName name="A118758040T_Latest">Data1!$C$806</definedName>
+    <definedName name="A118758112T">Data1!$K$1:$K$10,Data1!$K$437:$K$806</definedName>
+    <definedName name="A118758112T_Data">Data1!$K$437:$K$806</definedName>
+    <definedName name="A118758112T_Latest">Data1!$K$806</definedName>
+    <definedName name="A118758184C">Data1!$G$1:$G$10,Data1!$G$437:$G$806</definedName>
+    <definedName name="A118758184C_Data">Data1!$G$437:$G$806</definedName>
+    <definedName name="A118758184C_Latest">Data1!$G$806</definedName>
+    <definedName name="A118758400K">Data1!$J$1:$J$10,Data1!$J$437:$J$806</definedName>
+    <definedName name="A118758400K_Data">Data1!$J$437:$J$806</definedName>
+    <definedName name="A118758400K_Latest">Data1!$J$806</definedName>
+    <definedName name="A118758544W">Data1!$D$1:$D$10,Data1!$D$437:$D$806</definedName>
+    <definedName name="A118758544W_Data">Data1!$D$437:$D$806</definedName>
+    <definedName name="A118758544W_Latest">Data1!$D$806</definedName>
+    <definedName name="A118758616W">Data1!$I$1:$I$10,Data1!$I$737:$I$806</definedName>
+    <definedName name="A118758616W_Data">Data1!$I$737:$I$806</definedName>
+    <definedName name="A118758616W_Latest">Data1!$I$806</definedName>
+    <definedName name="A418403T">Data1!$B$1:$B$10,Data1!$B$11:$B$806</definedName>
+    <definedName name="A418403T_Data">Data1!$B$11:$B$806</definedName>
+    <definedName name="A418403T_Latest">Data1!$B$806</definedName>
+    <definedName name="A419138J">Data1!$L$1:$L$10,Data1!$L$185:$L$806</definedName>
+    <definedName name="A419138J_Data">Data1!$L$185:$L$806</definedName>
+    <definedName name="A419138J_Latest">Data1!$L$806</definedName>
+    <definedName name="A419824J">Data1!$M$1:$M$10,Data1!$M$11:$M$806</definedName>
+    <definedName name="A419824J_Data">Data1!$M$11:$M$806</definedName>
+    <definedName name="A419824J_Latest">Data1!$M$806</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$806</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$806</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -976,10 +976,10 @@
         <v>20455</v>
       </c>
       <c r="G12" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>21</v>
@@ -1008,10 +1008,10 @@
         <v>33420</v>
       </c>
       <c r="G13" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>21</v>
@@ -1040,10 +1040,10 @@
         <v>33420</v>
       </c>
       <c r="G14" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>21</v>
@@ -1072,10 +1072,10 @@
         <v>33420</v>
       </c>
       <c r="G15" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>21</v>
@@ -1104,10 +1104,10 @@
         <v>33420</v>
       </c>
       <c r="G16" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>21</v>
@@ -1136,10 +1136,10 @@
         <v>33420</v>
       </c>
       <c r="G17" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>21</v>
@@ -1168,10 +1168,10 @@
         <v>42552</v>
       </c>
       <c r="G18" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>21</v>
@@ -1200,10 +1200,10 @@
         <v>42552</v>
       </c>
       <c r="G19" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>21</v>
@@ -1232,10 +1232,10 @@
         <v>33420</v>
       </c>
       <c r="G20" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>21</v>
@@ -1264,10 +1264,10 @@
         <v>33420</v>
       </c>
       <c r="G21" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>21</v>
@@ -1296,10 +1296,10 @@
         <v>25750</v>
       </c>
       <c r="G22" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>21</v>
@@ -1328,10 +1328,10 @@
         <v>20455</v>
       </c>
       <c r="G23" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>21</v>
@@ -1378,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M804"/>
+  <dimension ref="A1:M806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1681,40 +1681,40 @@
         <v>18</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1722,40 +1722,40 @@
         <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L9" s="1">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -19714,16 +19714,16 @@
         <v>44013</v>
       </c>
       <c r="B785" s="8">
-        <v>10014</v>
+        <v>10068</v>
       </c>
       <c r="C785" s="8">
-        <v>576</v>
+        <v>1009</v>
       </c>
       <c r="D785" s="8">
-        <v>2012</v>
+        <v>2033</v>
       </c>
       <c r="E785" s="8">
-        <v>2588</v>
+        <v>3042</v>
       </c>
       <c r="F785" s="8">
         <v>131</v>
@@ -19744,10 +19744,10 @@
         <v>3070</v>
       </c>
       <c r="L785" s="8">
-        <v>5658</v>
+        <v>6112</v>
       </c>
       <c r="M785" s="8">
-        <v>15672</v>
+        <v>16180</v>
       </c>
     </row>
     <row r="786" spans="1:13" x14ac:dyDescent="0.2">
@@ -19755,16 +19755,16 @@
         <v>44044</v>
       </c>
       <c r="B786" s="8">
-        <v>9723</v>
+        <v>9706</v>
       </c>
       <c r="C786" s="8">
         <v>455</v>
       </c>
       <c r="D786" s="8">
-        <v>1763</v>
+        <v>1784</v>
       </c>
       <c r="E786" s="8">
-        <v>2218</v>
+        <v>2239</v>
       </c>
       <c r="F786" s="8">
         <v>39</v>
@@ -19785,10 +19785,10 @@
         <v>2207</v>
       </c>
       <c r="L786" s="8">
-        <v>4425</v>
+        <v>4446</v>
       </c>
       <c r="M786" s="8">
-        <v>14148</v>
+        <v>14152</v>
       </c>
     </row>
     <row r="787" spans="1:13" x14ac:dyDescent="0.2">
@@ -19796,16 +19796,16 @@
         <v>44075</v>
       </c>
       <c r="B787" s="8">
-        <v>11280</v>
+        <v>11253</v>
       </c>
       <c r="C787" s="8">
         <v>682</v>
       </c>
       <c r="D787" s="8">
-        <v>1568</v>
+        <v>1598</v>
       </c>
       <c r="E787" s="8">
-        <v>2250</v>
+        <v>2280</v>
       </c>
       <c r="F787" s="8">
         <v>30</v>
@@ -19826,10 +19826,10 @@
         <v>3171</v>
       </c>
       <c r="L787" s="8">
-        <v>5421</v>
+        <v>5451</v>
       </c>
       <c r="M787" s="8">
-        <v>16701</v>
+        <v>16704</v>
       </c>
     </row>
     <row r="788" spans="1:13" x14ac:dyDescent="0.2">
@@ -19837,19 +19837,19 @@
         <v>44105</v>
       </c>
       <c r="B788" s="8">
-        <v>11973</v>
+        <v>11956</v>
       </c>
       <c r="C788" s="8">
         <v>602</v>
       </c>
       <c r="D788" s="8">
-        <v>1872</v>
+        <v>1894</v>
       </c>
       <c r="E788" s="8">
-        <v>2474</v>
+        <v>2496</v>
       </c>
       <c r="F788" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G788" s="8">
         <v>234</v>
@@ -19864,13 +19864,13 @@
         <v>3398</v>
       </c>
       <c r="K788" s="8">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="L788" s="8">
-        <v>6153</v>
+        <v>6174</v>
       </c>
       <c r="M788" s="8">
-        <v>18126</v>
+        <v>18130</v>
       </c>
     </row>
     <row r="789" spans="1:13" x14ac:dyDescent="0.2">
@@ -19878,16 +19878,16 @@
         <v>44136</v>
       </c>
       <c r="B789" s="8">
-        <v>12257</v>
+        <v>12253</v>
       </c>
       <c r="C789" s="8">
         <v>556</v>
       </c>
       <c r="D789" s="8">
-        <v>1929</v>
+        <v>1935</v>
       </c>
       <c r="E789" s="8">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="F789" s="8">
         <v>59</v>
@@ -19908,10 +19908,10 @@
         <v>3402</v>
       </c>
       <c r="L789" s="8">
-        <v>5887</v>
+        <v>5893</v>
       </c>
       <c r="M789" s="8">
-        <v>18144</v>
+        <v>18146</v>
       </c>
     </row>
     <row r="790" spans="1:13" x14ac:dyDescent="0.2">
@@ -19919,16 +19919,16 @@
         <v>44166</v>
       </c>
       <c r="B790" s="8">
-        <v>12002</v>
+        <v>12021</v>
       </c>
       <c r="C790" s="8">
-        <v>595</v>
+        <v>757</v>
       </c>
       <c r="D790" s="8">
-        <v>1717</v>
+        <v>1739</v>
       </c>
       <c r="E790" s="8">
-        <v>2312</v>
+        <v>2496</v>
       </c>
       <c r="F790" s="8">
         <v>63</v>
@@ -19949,10 +19949,10 @@
         <v>2911</v>
       </c>
       <c r="L790" s="8">
-        <v>5223</v>
+        <v>5407</v>
       </c>
       <c r="M790" s="8">
-        <v>17225</v>
+        <v>17428</v>
       </c>
     </row>
     <row r="791" spans="1:13" x14ac:dyDescent="0.2">
@@ -19960,16 +19960,16 @@
         <v>44197</v>
       </c>
       <c r="B791" s="8">
-        <v>9293</v>
+        <v>9272</v>
       </c>
       <c r="C791" s="8">
         <v>415</v>
       </c>
       <c r="D791" s="8">
-        <v>1359</v>
+        <v>1383</v>
       </c>
       <c r="E791" s="8">
-        <v>1774</v>
+        <v>1798</v>
       </c>
       <c r="F791" s="8">
         <v>40</v>
@@ -19990,10 +19990,10 @@
         <v>2152</v>
       </c>
       <c r="L791" s="8">
-        <v>3926</v>
+        <v>3950</v>
       </c>
       <c r="M791" s="8">
-        <v>13219</v>
+        <v>13222</v>
       </c>
     </row>
     <row r="792" spans="1:13" x14ac:dyDescent="0.2">
@@ -20001,16 +20001,16 @@
         <v>44228</v>
       </c>
       <c r="B792" s="8">
-        <v>14095</v>
+        <v>14084</v>
       </c>
       <c r="C792" s="8">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D792" s="8">
-        <v>1894</v>
+        <v>1913</v>
       </c>
       <c r="E792" s="8">
-        <v>2524</v>
+        <v>2538</v>
       </c>
       <c r="F792" s="8">
         <v>152</v>
@@ -20031,10 +20031,10 @@
         <v>3165</v>
       </c>
       <c r="L792" s="8">
-        <v>5689</v>
+        <v>5703</v>
       </c>
       <c r="M792" s="8">
-        <v>19784</v>
+        <v>19787</v>
       </c>
     </row>
     <row r="793" spans="1:13" x14ac:dyDescent="0.2">
@@ -20042,16 +20042,16 @@
         <v>44256</v>
       </c>
       <c r="B793" s="8">
-        <v>16290</v>
+        <v>16274</v>
       </c>
       <c r="C793" s="8">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="D793" s="8">
-        <v>2378</v>
+        <v>2409</v>
       </c>
       <c r="E793" s="8">
-        <v>3347</v>
+        <v>3366</v>
       </c>
       <c r="F793" s="8">
         <v>4</v>
@@ -20072,10 +20072,10 @@
         <v>5327</v>
       </c>
       <c r="L793" s="8">
-        <v>8674</v>
+        <v>8693</v>
       </c>
       <c r="M793" s="8">
-        <v>24964</v>
+        <v>24967</v>
       </c>
     </row>
     <row r="794" spans="1:13" x14ac:dyDescent="0.2">
@@ -20083,19 +20083,19 @@
         <v>44287</v>
       </c>
       <c r="B794" s="8">
-        <v>14072</v>
+        <v>14021</v>
       </c>
       <c r="C794" s="8">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="D794" s="8">
-        <v>2160</v>
+        <v>2206</v>
       </c>
       <c r="E794" s="8">
-        <v>3218</v>
+        <v>3270</v>
       </c>
       <c r="F794" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G794" s="8">
         <v>283</v>
@@ -20110,13 +20110,13 @@
         <v>3572</v>
       </c>
       <c r="K794" s="8">
-        <v>3972</v>
+        <v>3966</v>
       </c>
       <c r="L794" s="8">
-        <v>7190</v>
+        <v>7236</v>
       </c>
       <c r="M794" s="8">
-        <v>21262</v>
+        <v>21257</v>
       </c>
     </row>
     <row r="795" spans="1:13" x14ac:dyDescent="0.2">
@@ -20124,16 +20124,16 @@
         <v>44317</v>
       </c>
       <c r="B795" s="8">
-        <v>14184</v>
+        <v>14153</v>
       </c>
       <c r="C795" s="8">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D795" s="8">
-        <v>2382</v>
+        <v>2406</v>
       </c>
       <c r="E795" s="8">
-        <v>3226</v>
+        <v>3252</v>
       </c>
       <c r="F795" s="8">
         <v>86</v>
@@ -20154,10 +20154,10 @@
         <v>3813</v>
       </c>
       <c r="L795" s="8">
-        <v>7039</v>
+        <v>7065</v>
       </c>
       <c r="M795" s="8">
-        <v>21223</v>
+        <v>21218</v>
       </c>
     </row>
     <row r="796" spans="1:13" x14ac:dyDescent="0.2">
@@ -20165,16 +20165,16 @@
         <v>44348</v>
       </c>
       <c r="B796" s="8">
-        <v>13470</v>
+        <v>13432</v>
       </c>
       <c r="C796" s="8">
         <v>693</v>
       </c>
       <c r="D796" s="8">
-        <v>2294</v>
+        <v>2340</v>
       </c>
       <c r="E796" s="8">
-        <v>2987</v>
+        <v>3033</v>
       </c>
       <c r="F796" s="8">
         <v>67</v>
@@ -20195,10 +20195,10 @@
         <v>3668</v>
       </c>
       <c r="L796" s="8">
-        <v>6655</v>
+        <v>6701</v>
       </c>
       <c r="M796" s="8">
-        <v>20125</v>
+        <v>20133</v>
       </c>
     </row>
     <row r="797" spans="1:13" x14ac:dyDescent="0.2">
@@ -20206,19 +20206,19 @@
         <v>44378</v>
       </c>
       <c r="B797" s="8">
-        <v>12370</v>
+        <v>12423</v>
       </c>
       <c r="C797" s="8">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D797" s="8">
-        <v>2378</v>
+        <v>2412</v>
       </c>
       <c r="E797" s="8">
-        <v>3183</v>
+        <v>3219</v>
       </c>
       <c r="F797" s="8">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G797" s="8">
         <v>106</v>
@@ -20233,13 +20233,13 @@
         <v>3191</v>
       </c>
       <c r="K797" s="8">
-        <v>3423</v>
+        <v>3417</v>
       </c>
       <c r="L797" s="8">
-        <v>6606</v>
+        <v>6636</v>
       </c>
       <c r="M797" s="8">
-        <v>18976</v>
+        <v>19059</v>
       </c>
     </row>
     <row r="798" spans="1:13" x14ac:dyDescent="0.2">
@@ -20247,16 +20247,16 @@
         <v>44409</v>
       </c>
       <c r="B798" s="8">
-        <v>12813</v>
+        <v>12767</v>
       </c>
       <c r="C798" s="8">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="D798" s="8">
-        <v>2407</v>
+        <v>2470</v>
       </c>
       <c r="E798" s="8">
-        <v>3171</v>
+        <v>3239</v>
       </c>
       <c r="F798" s="8">
         <v>51</v>
@@ -20277,10 +20277,10 @@
         <v>3514</v>
       </c>
       <c r="L798" s="8">
-        <v>6685</v>
+        <v>6753</v>
       </c>
       <c r="M798" s="8">
-        <v>19498</v>
+        <v>19520</v>
       </c>
     </row>
     <row r="799" spans="1:13" x14ac:dyDescent="0.2">
@@ -20288,19 +20288,19 @@
         <v>44440</v>
       </c>
       <c r="B799" s="8">
-        <v>11218</v>
+        <v>11188</v>
       </c>
       <c r="C799" s="8">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="D799" s="8">
-        <v>2620</v>
+        <v>2656</v>
       </c>
       <c r="E799" s="8">
-        <v>3363</v>
+        <v>3432</v>
       </c>
       <c r="F799" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G799" s="8">
         <v>66</v>
@@ -20309,19 +20309,19 @@
         <v>2698</v>
       </c>
       <c r="I799" s="8">
-        <v>1856</v>
+        <v>2073</v>
       </c>
       <c r="J799" s="8">
-        <v>4554</v>
+        <v>4771</v>
       </c>
       <c r="K799" s="8">
-        <v>4653</v>
+        <v>4867</v>
       </c>
       <c r="L799" s="8">
-        <v>8016</v>
+        <v>8299</v>
       </c>
       <c r="M799" s="8">
-        <v>19234</v>
+        <v>19487</v>
       </c>
     </row>
     <row r="800" spans="1:13" x14ac:dyDescent="0.2">
@@ -20329,16 +20329,16 @@
         <v>44470</v>
       </c>
       <c r="B800" s="8">
-        <v>11084</v>
+        <v>11087</v>
       </c>
       <c r="C800" s="8">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D800" s="8">
-        <v>2011</v>
+        <v>2056</v>
       </c>
       <c r="E800" s="8">
-        <v>2654</v>
+        <v>2701</v>
       </c>
       <c r="F800" s="8">
         <v>65</v>
@@ -20347,22 +20347,22 @@
         <v>100</v>
       </c>
       <c r="H800" s="8">
-        <v>1634</v>
+        <v>1650</v>
       </c>
       <c r="I800" s="8">
         <v>816</v>
       </c>
       <c r="J800" s="8">
-        <v>2450</v>
+        <v>2466</v>
       </c>
       <c r="K800" s="8">
-        <v>2615</v>
+        <v>2631</v>
       </c>
       <c r="L800" s="8">
-        <v>5269</v>
+        <v>5332</v>
       </c>
       <c r="M800" s="8">
-        <v>16353</v>
+        <v>16419</v>
       </c>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.2">
@@ -20370,19 +20370,19 @@
         <v>44501</v>
       </c>
       <c r="B801" s="8">
-        <v>11467</v>
+        <v>11470</v>
       </c>
       <c r="C801" s="8">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D801" s="8">
-        <v>2476</v>
+        <v>2515</v>
       </c>
       <c r="E801" s="8">
-        <v>3154</v>
+        <v>3187</v>
       </c>
       <c r="F801" s="8">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G801" s="8">
         <v>49</v>
@@ -20397,13 +20397,13 @@
         <v>2244</v>
       </c>
       <c r="K801" s="8">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="L801" s="8">
-        <v>5521</v>
+        <v>5549</v>
       </c>
       <c r="M801" s="8">
-        <v>16988</v>
+        <v>17019</v>
       </c>
     </row>
     <row r="802" spans="1:13" x14ac:dyDescent="0.2">
@@ -20411,40 +20411,40 @@
         <v>44531</v>
       </c>
       <c r="B802" s="8">
-        <v>9340</v>
+        <v>9184</v>
       </c>
       <c r="C802" s="8">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D802" s="8">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="E802" s="8">
-        <v>2293</v>
+        <v>2310</v>
       </c>
       <c r="F802" s="8">
         <v>37</v>
       </c>
       <c r="G802" s="8">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H802" s="8">
-        <v>972</v>
+        <v>878</v>
       </c>
       <c r="I802" s="8">
-        <v>3205</v>
+        <v>3350</v>
       </c>
       <c r="J802" s="8">
-        <v>4177</v>
+        <v>4228</v>
       </c>
       <c r="K802" s="8">
-        <v>4480</v>
+        <v>4525</v>
       </c>
       <c r="L802" s="8">
-        <v>6773</v>
+        <v>6835</v>
       </c>
       <c r="M802" s="8">
-        <v>16113</v>
+        <v>16019</v>
       </c>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.2">
@@ -20452,16 +20452,16 @@
         <v>44562</v>
       </c>
       <c r="B803" s="8">
-        <v>6569</v>
+        <v>6740</v>
       </c>
       <c r="C803" s="8">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="D803" s="8">
-        <v>1460</v>
+        <v>1479</v>
       </c>
       <c r="E803" s="8">
-        <v>1786</v>
+        <v>1833</v>
       </c>
       <c r="F803" s="8">
         <v>13</v>
@@ -20470,22 +20470,22 @@
         <v>87</v>
       </c>
       <c r="H803" s="8">
-        <v>800</v>
+        <v>893</v>
       </c>
       <c r="I803" s="8">
         <v>769</v>
       </c>
       <c r="J803" s="8">
-        <v>1569</v>
+        <v>1662</v>
       </c>
       <c r="K803" s="8">
-        <v>1669</v>
+        <v>1762</v>
       </c>
       <c r="L803" s="8">
-        <v>3455</v>
+        <v>3595</v>
       </c>
       <c r="M803" s="8">
-        <v>10024</v>
+        <v>10335</v>
       </c>
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.2">
@@ -20493,40 +20493,122 @@
         <v>44593</v>
       </c>
       <c r="B804" s="8">
-        <v>10249</v>
+        <v>10456</v>
       </c>
       <c r="C804" s="8">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="D804" s="8">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="E804" s="8">
-        <v>2732</v>
+        <v>2752</v>
       </c>
       <c r="F804" s="8">
         <v>18</v>
       </c>
       <c r="G804" s="8">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H804" s="8">
-        <v>2106</v>
+        <v>2112</v>
       </c>
       <c r="I804" s="8">
         <v>2963</v>
       </c>
       <c r="J804" s="8">
-        <v>5069</v>
+        <v>5075</v>
       </c>
       <c r="K804" s="8">
-        <v>5205</v>
+        <v>5220</v>
       </c>
       <c r="L804" s="8">
-        <v>7937</v>
+        <v>7972</v>
       </c>
       <c r="M804" s="8">
-        <v>18186</v>
+        <v>18428</v>
+      </c>
+    </row>
+    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A805" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B805" s="8">
+        <v>11407</v>
+      </c>
+      <c r="C805" s="8">
+        <v>507</v>
+      </c>
+      <c r="D805" s="8">
+        <v>2857</v>
+      </c>
+      <c r="E805" s="8">
+        <v>3364</v>
+      </c>
+      <c r="F805" s="8">
+        <v>54</v>
+      </c>
+      <c r="G805" s="8">
+        <v>168</v>
+      </c>
+      <c r="H805" s="8">
+        <v>679</v>
+      </c>
+      <c r="I805" s="8">
+        <v>757</v>
+      </c>
+      <c r="J805" s="8">
+        <v>1436</v>
+      </c>
+      <c r="K805" s="8">
+        <v>1658</v>
+      </c>
+      <c r="L805" s="8">
+        <v>5022</v>
+      </c>
+      <c r="M805" s="8">
+        <v>16429</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A806" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B806" s="8">
+        <v>8906</v>
+      </c>
+      <c r="C806" s="8">
+        <v>358</v>
+      </c>
+      <c r="D806" s="8">
+        <v>1793</v>
+      </c>
+      <c r="E806" s="8">
+        <v>2151</v>
+      </c>
+      <c r="F806" s="8">
+        <v>17</v>
+      </c>
+      <c r="G806" s="8">
+        <v>116</v>
+      </c>
+      <c r="H806" s="8">
+        <v>1133</v>
+      </c>
+      <c r="I806" s="8">
+        <v>1650</v>
+      </c>
+      <c r="J806" s="8">
+        <v>2783</v>
+      </c>
+      <c r="K806" s="8">
+        <v>2916</v>
+      </c>
+      <c r="L806" s="8">
+        <v>5067</v>
+      </c>
+      <c r="M806" s="8">
+        <v>13973</v>
       </c>
     </row>
   </sheetData>
